--- a/results/organizando resultados.xlsx
+++ b/results/organizando resultados.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Fdo Baquero B\Documents\GitHub\dimensionamiento_microrred\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrope\Documents\01. UdeA\00. Tesis\09. Implementacion\dimensionamiento_microrred\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B715D6-807D-4829-97D9-C5568653DD1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBDDA65-9DF9-4360-B9C9-92E744061255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{63A3068A-D12A-4D3C-BF6F-C776FDC2B0D4}"/>
+    <workbookView xWindow="930" yWindow="-120" windowWidth="19680" windowHeight="11760" xr2:uid="{63A3068A-D12A-4D3C-BF6F-C776FDC2B0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="170">
   <si>
     <t>id_simulacion</t>
   </si>
@@ -552,9 +544,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="187" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -668,9 +660,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -686,10 +678,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1010,50 +1002,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54942861-F607-463C-B031-7994E87181B0}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="5"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="5"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>10</v>
       </c>
-      <c r="C1" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>190</v>
       </c>
-      <c r="C2" s="1">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -1075,14 +1067,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="11">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
@@ -1104,14 +1096,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="11">
         <v>0.9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -1133,14 +1125,14 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -1162,15 +1154,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0.05</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.1</v>
+      <c r="C7">
+        <v>0.05</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>66</v>
@@ -1191,15 +1183,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="11">
         <v>40.32</v>
       </c>
-      <c r="C8" s="1">
-        <v>67.2</v>
+      <c r="C8">
+        <v>100.8</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>63</v>
@@ -1220,15 +1212,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11">
         <v>40.32</v>
       </c>
-      <c r="C9" s="1">
-        <v>67.2</v>
+      <c r="C9">
+        <v>100.8</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>62</v>
@@ -1249,14 +1241,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11">
         <v>0.01</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>0.01</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -1278,14 +1270,14 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="11">
         <v>0.5</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>0.5</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -1307,14 +1299,14 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -1327,14 +1319,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="11">
         <v>0.2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>0.2</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -1347,15 +1339,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="11">
         <v>3000</v>
       </c>
-      <c r="C14" s="1">
-        <v>1500</v>
+      <c r="C14">
+        <v>3000</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>73</v>
@@ -1367,14 +1359,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="11">
         <v>0.95</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>0.95</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -1387,14 +1379,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="11">
         <v>0.9</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>0.9</v>
       </c>
       <c r="D16" t="s">
@@ -1407,14 +1399,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="11">
         <v>5</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>5</v>
       </c>
       <c r="D17" t="s">
@@ -1427,14 +1419,14 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>10</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -1447,14 +1439,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="11">
         <v>824</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>824</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -1467,48 +1459,48 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="11">
         <v>443</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>443</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="11">
         <v>1533</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>1533</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
       </c>
-      <c r="C23" s="1">
-        <v>9.99</v>
+      <c r="C23">
+        <v>4.99</v>
       </c>
       <c r="D23" t="s">
         <v>107</v>
@@ -1520,15 +1512,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>1823.3</v>
       </c>
-      <c r="C24" s="1">
-        <v>3644.4</v>
+      <c r="C24">
+        <v>1821.2</v>
       </c>
       <c r="D24" t="s">
         <v>116</v>
@@ -1540,15 +1532,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>229.1</v>
       </c>
-      <c r="C25" s="1">
-        <v>145.30000000000001</v>
+      <c r="C25">
+        <v>116.3</v>
       </c>
       <c r="D25" t="s">
         <v>117</v>
@@ -1560,14 +1552,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="11">
         <v>20</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>20</v>
       </c>
       <c r="D26" t="s">
@@ -1580,14 +1572,14 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="11">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>8.0799999999999997E-2</v>
       </c>
       <c r="D27" t="s">
@@ -1600,14 +1592,14 @@
         <v>0.74339999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>0.1</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>0.1</v>
       </c>
       <c r="D28" t="s">
@@ -1620,169 +1612,169 @@
         <v>90.38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>5605.3649999999998</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>5605.3649999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="11">
         <v>539983.495</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>539983.495</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="11">
         <v>7627407.0010000002</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>7627407.0010000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>319505805</v>
       </c>
-      <c r="C32" s="1">
-        <v>706275990</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>681051847.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>21772134.518399999</v>
       </c>
-      <c r="C33" s="1">
-        <v>36286890.864</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>54430336.295999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>76274070.010000005</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>0.67120000000000002</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>0.67120000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>0.67120000000000002</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>0.67120000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="11">
         <v>0.7</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>0.7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="11">
         <v>0.7</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>10229419.6821</v>
       </c>
-      <c r="C39" s="1">
-        <v>17049032.8035</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>25573549.2053</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>35836609.053499997</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="11">
         <v>0.02</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>0.01</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>3195058.05</v>
       </c>
-      <c r="C43" s="1">
-        <v>7062759.9000000004</v>
+      <c r="C43">
+        <v>6810518.4800000004</v>
       </c>
       <c r="D43" t="s">
         <v>107</v>
@@ -1794,15 +1786,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>435442.69</v>
       </c>
-      <c r="C44" s="1">
-        <v>725737.82</v>
+      <c r="C44">
+        <v>1088606.73</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>134</v>
@@ -1814,14 +1806,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>129.22999999999999</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>129.22999999999999</v>
       </c>
       <c r="D45" t="s">
@@ -1834,14 +1826,14 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>3736.91</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>3736.91</v>
       </c>
       <c r="D46" t="s">
@@ -1854,14 +1846,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="11">
         <v>8789</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>8789</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -1874,14 +1866,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="11">
         <v>79900</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>79900</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -1894,14 +1886,14 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>14958813.619999999</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -1914,15 +1906,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>17380.97</v>
       </c>
-      <c r="C50" s="1">
-        <v>22411.48</v>
+      <c r="C50">
+        <v>22479.72</v>
       </c>
       <c r="D50" t="s">
         <v>123</v>
@@ -1934,15 +1926,15 @@
         <v>9.74E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>0.5</v>
       </c>
-      <c r="C51" s="1">
-        <v>0.32</v>
+      <c r="C51">
+        <v>0.84</v>
       </c>
       <c r="D51" t="s">
         <v>124</v>
@@ -1954,15 +1946,15 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>16502.41</v>
       </c>
-      <c r="C52" s="1">
-        <v>20499.89</v>
+      <c r="C52">
+        <v>20586.36</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
@@ -1974,15 +1966,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>0.48</v>
       </c>
-      <c r="C53" s="1">
-        <v>0.3</v>
+      <c r="C53">
+        <v>0.77</v>
       </c>
       <c r="D53" t="s">
         <v>127</v>
@@ -1994,14 +1986,14 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>3010.81</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
@@ -2014,29 +2006,29 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>67.17</v>
       </c>
-      <c r="C55" s="1">
-        <v>205.14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>90.18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>1094.8800000000001</v>
       </c>
-      <c r="C56" s="1">
-        <v>2315.59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>1090.0999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -2044,11 +2036,11 @@
         <f>B24*0.7434</f>
         <v>1355.4412199999999</v>
       </c>
-      <c r="C57" s="1">
-        <v>4751.58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>1353.93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>138</v>
       </c>
@@ -2062,7 +2054,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>139</v>
       </c>
@@ -2073,10 +2065,11 @@
         <v>190</v>
       </c>
       <c r="G59">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <f>C2</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>141</v>
       </c>
@@ -2087,10 +2080,10 @@
         <v>48</v>
       </c>
       <c r="G60">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>142</v>
       </c>
@@ -2101,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="G61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>143</v>
       </c>
@@ -2115,10 +2108,11 @@
         <v>40.32</v>
       </c>
       <c r="G62">
-        <v>67.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <f>C9</f>
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>166</v>
       </c>
@@ -2129,10 +2123,11 @@
         <v>229</v>
       </c>
       <c r="G63">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <f>C25</f>
+        <v>116.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>140</v>
       </c>
@@ -2146,7 +2141,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>146</v>
       </c>
@@ -2159,10 +2154,10 @@
       </c>
       <c r="G65">
         <f>C32/C46</f>
-        <v>189000</v>
-      </c>
-    </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.3">
+        <v>182250</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>148</v>
       </c>
@@ -2175,10 +2170,10 @@
       </c>
       <c r="G66">
         <f>C33/C46</f>
-        <v>9710.4</v>
-      </c>
-    </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.3">
+        <v>14565.6</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>149</v>
       </c>
@@ -2193,7 +2188,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>147</v>
       </c>
@@ -2206,10 +2201,10 @@
       </c>
       <c r="G68">
         <f>C43/C46</f>
-        <v>1890.0000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.3">
+        <v>1822.500001338004</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>144</v>
       </c>
@@ -2222,10 +2217,10 @@
       </c>
       <c r="G69" s="8">
         <f>C44/C46</f>
-        <v>194.20800072787409</v>
-      </c>
-    </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+        <v>291.31200109181117</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>145</v>
       </c>
@@ -2240,7 +2235,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>150</v>
       </c>
@@ -2253,10 +2248,10 @@
       </c>
       <c r="G71" s="8">
         <f>C39/C46</f>
-        <v>4562.3343359888249</v>
-      </c>
-    </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.3">
+        <v>6843.5015039966174</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>151</v>
       </c>
@@ -2271,7 +2266,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>152</v>
       </c>
@@ -2285,7 +2280,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>153</v>
       </c>
@@ -2299,7 +2294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>168</v>
       </c>
@@ -2312,10 +2307,10 @@
       </c>
       <c r="G75">
         <f>C24</f>
-        <v>3644.4</v>
-      </c>
-    </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+        <v>1821.2</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>165</v>
       </c>
@@ -2328,10 +2323,10 @@
       </c>
       <c r="G76">
         <f>C57</f>
-        <v>4751.58</v>
-      </c>
-    </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.3">
+        <v>1353.93</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>154</v>
       </c>
@@ -2339,15 +2334,15 @@
         <v>162</v>
       </c>
       <c r="F77">
-        <f>B50</f>
+        <f t="shared" ref="F77:G80" si="0">B50</f>
         <v>17380.97</v>
       </c>
       <c r="G77">
-        <f>C50</f>
-        <v>22411.48</v>
-      </c>
-    </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>22479.72</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>155</v>
       </c>
@@ -2355,15 +2350,15 @@
         <v>162</v>
       </c>
       <c r="F78">
-        <f>B51</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G78">
-        <f>C51</f>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>156</v>
       </c>
@@ -2371,15 +2366,15 @@
         <v>162</v>
       </c>
       <c r="F79">
-        <f>B52</f>
+        <f t="shared" si="0"/>
         <v>16502.41</v>
       </c>
       <c r="G79">
-        <f>C52</f>
-        <v>20499.89</v>
-      </c>
-    </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>20586.36</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>157</v>
       </c>
@@ -2387,12 +2382,12 @@
         <v>162</v>
       </c>
       <c r="F80">
-        <f>B53</f>
+        <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="G80">
-        <f>C53</f>
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -2402,15 +2397,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6C3D-3A11-4C80-B458-10A0E32E1A69}">
-  <dimension ref="A1:BE1"/>
+  <dimension ref="A1:BE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:BE1"/>
+      <selection activeCell="A3" sqref="A3:BE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>58</v>
       </c>
@@ -2581,6 +2576,179 @@
       </c>
       <c r="BE1" s="2">
         <v>4751.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1007</v>
+      </c>
+      <c r="B3">
+        <v>405</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.05</v>
+      </c>
+      <c r="H3">
+        <v>100.8</v>
+      </c>
+      <c r="I3">
+        <v>100.8</v>
+      </c>
+      <c r="J3">
+        <v>0.01</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.2</v>
+      </c>
+      <c r="N3">
+        <v>3000</v>
+      </c>
+      <c r="O3">
+        <v>0.95</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>824</v>
+      </c>
+      <c r="T3">
+        <v>443</v>
+      </c>
+      <c r="U3">
+        <v>1533</v>
+      </c>
+      <c r="V3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3">
+        <v>4.99</v>
+      </c>
+      <c r="X3">
+        <v>1821.2</v>
+      </c>
+      <c r="Y3">
+        <v>116.3</v>
+      </c>
+      <c r="Z3">
+        <v>20</v>
+      </c>
+      <c r="AA3">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="AB3">
+        <v>0.1</v>
+      </c>
+      <c r="AC3">
+        <v>5605.3649999999998</v>
+      </c>
+      <c r="AD3">
+        <v>539983.495</v>
+      </c>
+      <c r="AE3">
+        <v>7627407.0010000002</v>
+      </c>
+      <c r="AF3">
+        <v>681051847.5</v>
+      </c>
+      <c r="AG3">
+        <v>54430336.295999996</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="AJ3">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="AK3">
+        <v>0.7</v>
+      </c>
+      <c r="AL3">
+        <v>0.7</v>
+      </c>
+      <c r="AM3">
+        <v>25573549.2053</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0.02</v>
+      </c>
+      <c r="AP3">
+        <v>0.01</v>
+      </c>
+      <c r="AQ3">
+        <v>6810518.4800000004</v>
+      </c>
+      <c r="AR3">
+        <v>1088606.73</v>
+      </c>
+      <c r="AS3">
+        <v>129.22999999999999</v>
+      </c>
+      <c r="AT3">
+        <v>3736.91</v>
+      </c>
+      <c r="AU3">
+        <v>8789</v>
+      </c>
+      <c r="AV3">
+        <v>79900</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>22479.72</v>
+      </c>
+      <c r="AY3">
+        <v>0.84</v>
+      </c>
+      <c r="AZ3">
+        <v>20586.36</v>
+      </c>
+      <c r="BA3">
+        <v>0.77</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>90.18</v>
+      </c>
+      <c r="BD3">
+        <v>1090.0999999999999</v>
+      </c>
+      <c r="BE3">
+        <v>1353.93</v>
       </c>
     </row>
   </sheetData>

--- a/results/organizando resultados.xlsx
+++ b/results/organizando resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrope\Documents\01. UdeA\00. Tesis\09. Implementacion\dimensionamiento_microrred\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBDDA65-9DF9-4360-B9C9-92E744061255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4956BC68-EB32-4905-94EE-EE6E7FCE1F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="-120" windowWidth="19680" windowHeight="11760" xr2:uid="{63A3068A-D12A-4D3C-BF6F-C776FDC2B0D4}"/>
   </bookViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54942861-F607-463C-B031-7994E87181B0}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,7 +2277,7 @@
         <v>5</v>
       </c>
       <c r="G73">
-        <v>9.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.25">
